--- a/Files/Madden26/IE/Season1/RegressionValues.xlsx
+++ b/Files/Madden26/IE/Season1/RegressionValues.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40f61192ff96ff75/Documents/Git/MaddenTools/Files/Madden26/IE/Season0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40f61192ff96ff75/Documents/Git/MaddenTools/Files/Madden26/IE/Season1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="565" documentId="8_{8E1C3BBD-F774-4B51-81E8-0894D1609A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{302ADCAD-7C09-42D2-8F62-E8478338E65F}"/>
+  <xr:revisionPtr revIDLastSave="574" documentId="8_{8E1C3BBD-F774-4B51-81E8-0894D1609A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{052CDE63-8CA9-4CCD-B43B-B8962CF6A945}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -976,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="D140" sqref="D140"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2411,7 +2411,7 @@
         <v>18</v>
       </c>
       <c r="B130" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C130" s="1">
         <v>1</v>
@@ -2422,7 +2422,7 @@
         <v>18</v>
       </c>
       <c r="B131" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C131" s="1">
         <v>4</v>
@@ -2433,7 +2433,7 @@
         <v>18</v>
       </c>
       <c r="B132" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C132" s="1">
         <v>4</v>
@@ -2444,7 +2444,7 @@
         <v>18</v>
       </c>
       <c r="B133" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C133" s="1">
         <v>5</v>
@@ -2455,7 +2455,7 @@
         <v>18</v>
       </c>
       <c r="B134" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C134" s="1">
         <v>4</v>
@@ -2466,7 +2466,7 @@
         <v>18</v>
       </c>
       <c r="B135" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C135" s="1">
         <v>5</v>
@@ -2477,7 +2477,7 @@
         <v>18</v>
       </c>
       <c r="B136" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C136" s="1">
         <v>4</v>
@@ -2488,7 +2488,7 @@
         <v>18</v>
       </c>
       <c r="B137" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C137" s="1">
         <v>5</v>
@@ -2499,7 +2499,7 @@
         <v>18</v>
       </c>
       <c r="B138" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C138" s="1">
         <v>4</v>
